--- a/accessdb/templateSheets/05defFamSheet.xlsx
+++ b/accessdb/templateSheets/05defFamSheet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\win11vm\networkdb\Registry\defFamSheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jovial\Documents\Workspace\GitHub\cbcef-frdb\accessdb\templateSheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{645C6EEA-A26F-4132-B96D-B05A65741369}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC31CD58-FD38-4F37-8E4B-8877009DEA36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{691864EF-CD39-4A4F-A743-1915A8367D6B}"/>
   </bookViews>
@@ -1113,8 +1113,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13B0EA35-602C-4E1F-A94E-665F1CEBDA8B}">
   <dimension ref="A1:G1018"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47:G47"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1532,7 +1532,7 @@
       <c r="F33" s="18"/>
       <c r="G33" s="18"/>
     </row>
-    <row r="34" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="16">
         <v>21</v>
       </c>

--- a/accessdb/templateSheets/05defFamSheet.xlsx
+++ b/accessdb/templateSheets/05defFamSheet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jovial\Documents\Workspace\GitHub\cbcef-frdb\accessdb\templateSheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\win11vm\networkdb\Registry\defFamSheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC31CD58-FD38-4F37-8E4B-8877009DEA36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DBE10A8-E428-4863-8C45-FFF482C2486B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{691864EF-CD39-4A4F-A743-1915A8367D6B}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="151">
   <si>
     <t>വീട്ടുപേര്:</t>
   </si>
@@ -212,6 +212,292 @@
   </si>
   <si>
     <t>പേര്:</t>
+  </si>
+  <si>
+    <t>Jayarson Jose</t>
+  </si>
+  <si>
+    <t>Ammini Jayarson</t>
+  </si>
+  <si>
+    <t>Jovial Joe Jayarson</t>
+  </si>
+  <si>
+    <t>Bejoy Jayarson</t>
+  </si>
+  <si>
+    <t>Clarita Jayarson</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Husband</t>
+  </si>
+  <si>
+    <t>Wife</t>
+  </si>
+  <si>
+    <t>Son</t>
+  </si>
+  <si>
+    <t>Daughter</t>
+  </si>
+  <si>
+    <t>Married</t>
+  </si>
+  <si>
+    <t>Single</t>
+  </si>
+  <si>
+    <t>28-12-2014</t>
+  </si>
+  <si>
+    <t>Graduate</t>
+  </si>
+  <si>
+    <t>12th Class</t>
+  </si>
+  <si>
+    <t>Below 10th Class</t>
+  </si>
+  <si>
+    <t>Retired</t>
+  </si>
+  <si>
+    <t>Home Maker</t>
+  </si>
+  <si>
+    <t>Not working</t>
+  </si>
+  <si>
+    <t>Student</t>
+  </si>
+  <si>
+    <t>Rs. 10000 - 30000</t>
+  </si>
+  <si>
+    <t>Not Applicable</t>
+  </si>
+  <si>
+    <t>White</t>
+  </si>
+  <si>
+    <t>838170403319</t>
+  </si>
+  <si>
+    <t>286426610165</t>
+  </si>
+  <si>
+    <t>661865056018</t>
+  </si>
+  <si>
+    <t>909021865450</t>
+  </si>
+  <si>
+    <t>859565340480</t>
+  </si>
+  <si>
+    <t>jayarson.jose@gmail.com</t>
+  </si>
+  <si>
+    <t>jayarson@gmail.com</t>
+  </si>
+  <si>
+    <t>jovial7joe@hotmail.com</t>
+  </si>
+  <si>
+    <t>bejoyjayarson@gmail.com</t>
+  </si>
+  <si>
+    <t>claritajrsn@gmail.com</t>
+  </si>
+  <si>
+    <t>Own</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>S/o Jose John</t>
+  </si>
+  <si>
+    <t>W/o Jayaraon Jose</t>
+  </si>
+  <si>
+    <t>S/o Jayarson Jose</t>
+  </si>
+  <si>
+    <t>D/o Jayarson Jose</t>
+  </si>
+  <si>
+    <t>Arackaparambil</t>
+  </si>
+  <si>
+    <t>21/178/1</t>
+  </si>
+  <si>
+    <t>Providence Street</t>
+  </si>
+  <si>
+    <t>Nadathara P O</t>
+  </si>
+  <si>
+    <t>Thrissur</t>
+  </si>
+  <si>
+    <t>Kerala - 680751</t>
+  </si>
+  <si>
+    <t>Jose John</t>
+  </si>
+  <si>
+    <t>M A Chacko</t>
+  </si>
+  <si>
+    <t>Converted from Roman Catholic to Brethren</t>
+  </si>
+  <si>
+    <t>Christian Brethren Faith</t>
+  </si>
+  <si>
+    <t>Rosamma Jose</t>
+  </si>
+  <si>
+    <t>Thankamma Chacko</t>
+  </si>
+  <si>
+    <t>Ammini Jayaraon</t>
+  </si>
+  <si>
+    <t>Chriatian Brethren Faith</t>
+  </si>
+  <si>
+    <t>Roman Catholic</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Brethren Assembly, Mukkuzhi</t>
+  </si>
+  <si>
+    <t>Christian Brethren Church, East Fort, Thrissur</t>
+  </si>
+  <si>
+    <t>Olivet Christian Assembly, Red Bank Tea Estate, Banarhat, Jalpaiguri Dist. WB.</t>
+  </si>
+  <si>
+    <t>Christan Brethren Chruch, East Fort, Thrissur</t>
+  </si>
+  <si>
+    <t>Christian brethren Church, East Fort, Thrissur</t>
+  </si>
+  <si>
+    <t>Christian Brethren Church East Fort, Thrissur.</t>
+  </si>
+  <si>
+    <t>(a) Brethren Assembly, Mukkuzhi - 1981 - 1993_x000D_
+(b) Christian Brethren Church, Kirkee, Pune - 1993-1996_x000D_
+(c) Chriatian Brethren Church, Meerut, UP: 1996-1999_x000D_
+(d) Meeting Room, Fort Assembly, Mumbai: 1999-2002_x000D_
+(e) Christian Brethren Assembly, Indira Nagar, Bangalore: 2002-2003_x000D_
+(f) Moravian Church, Leh, J&amp;K,: 2003-2006_x000D_
+(g) Believers Assembly, Amritsar, Punjab: 2006-2009_x000D_
+(h) Olivet Christian Assembly, Red Bank Tea Estate, Banarhat, Jalpaiguri Dist. WB: 2009-2012_x000D_
+(i) Local Pentacostal Church, Nainital - 2012-2014_x000D_
+Meeting Room, Fort Assembly: 2014-2016</t>
+  </si>
+  <si>
+    <t>(a) Brethren Assembly, Mukkuzhi: 1996 _x000D_
+(b) Chriatian Brethren Church, Meerut, UP: 1996-1999_x000D_
+(c) Meeting Room, Fort Assembly, Mumbai: 1999-2002_x000D_
+(d) Christian Brethren Assembly,Kilpok 2002-2003_x000D_
+(e) Christian Brethren Church, East Fort, Thrissur: 2003-2004_x000D_
+(f) Moravian Church, Leh, J&amp;K,: 2004-2006_x000D_
+(g) Believers Assembly, Amritsar, Punjab: 2006-2009_x000D_
+(h) Olivet Christian Assembly, Red Bank Tea Estate, Banarhat, Jalpaiguri Dist. WB: 2009-2013</t>
+  </si>
+  <si>
+    <t>(a) Olivet Christian Assembly, Red Bank Tea Estate, Banarhat, Jalpaiguri Dist. WB: 2010 - 2013</t>
+  </si>
+  <si>
+    <t>(a) Olivet Christian Assembly, Red Bank Tea Estate, Banarhat, Jalpaiguri Dist. WB: 2012 - 2013</t>
+  </si>
+  <si>
+    <t>Since Nov 2016</t>
+  </si>
+  <si>
+    <t>Since Apr 2013</t>
+  </si>
+  <si>
+    <t>01 ElectionID</t>
+  </si>
+  <si>
+    <t>Election ID (1)</t>
+  </si>
+  <si>
+    <t>EID_Joe-1</t>
+  </si>
+  <si>
+    <t>Election ID-1</t>
+  </si>
+  <si>
+    <t>Clarita_Addhaar</t>
+  </si>
+  <si>
+    <t>Jayarson_Aadhaar</t>
+  </si>
+  <si>
+    <t>Betty_Adhaar</t>
+  </si>
+  <si>
+    <t>Jovial_Adhaar</t>
+  </si>
+  <si>
+    <t>Bejoy_Adhaar</t>
+  </si>
+  <si>
+    <t>SSLC - 2</t>
+  </si>
+  <si>
+    <t>Birth -(S)</t>
+  </si>
+  <si>
+    <t>BirthCertificate-1</t>
+  </si>
+  <si>
+    <t>Bejoy's Birth certificate</t>
+  </si>
+  <si>
+    <t>Birth Certificate-1</t>
+  </si>
+  <si>
+    <t>Marriage</t>
+  </si>
+  <si>
+    <t>BLUE-2</t>
+  </si>
+  <si>
+    <t>BLUE-1</t>
+  </si>
+  <si>
+    <t>Jovial_Passport</t>
+  </si>
+  <si>
+    <t>DSC_0017 copy</t>
+  </si>
+  <si>
+    <t>DSC_0010 copy</t>
   </si>
 </sst>
 </file>
@@ -302,7 +588,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -355,12 +641,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
@@ -382,17 +662,20 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="17" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -411,7 +694,7 @@
         <family val="1"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -425,7 +708,7 @@
         <family val="1"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -439,7 +722,7 @@
         <family val="1"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -453,7 +736,7 @@
         <family val="1"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -467,7 +750,7 @@
         <family val="1"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1113,8 +1396,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13B0EA35-602C-4E1F-A94E-665F1CEBDA8B}">
   <dimension ref="A1:G1018"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="C40" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47:G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1133,7 +1416,7 @@
       <c r="F1" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="G1" s="29"/>
+      <c r="G1" s="25"/>
     </row>
     <row r="2" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="5"/>
@@ -1143,7 +1426,7 @@
       <c r="F2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="29"/>
+      <c r="G2" s="25"/>
     </row>
     <row r="3" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="5"/>
@@ -1153,7 +1436,7 @@
       <c r="F3" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="G3" s="29"/>
+      <c r="G3" s="25"/>
     </row>
     <row r="4" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="5"/>
@@ -1164,25 +1447,25 @@
       <c r="G4" s="14"/>
     </row>
     <row r="5" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="D5" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="E5" s="26" t="s">
+      <c r="E5" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="F5" s="26" t="s">
+      <c r="F5" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="G5" s="26" t="s">
+      <c r="G5" s="24" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1193,11 +1476,21 @@
       <c r="B6" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
+      <c r="C6" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="E6" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="F6" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="G6" s="26" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="16">
@@ -1206,11 +1499,21 @@
       <c r="B7" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
+      <c r="C7" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="E7" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="F7" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="G7" s="26" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="16">
@@ -1219,11 +1522,21 @@
       <c r="B8" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
+      <c r="C8" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="F8" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="G8" s="26" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="16">
@@ -1232,11 +1545,21 @@
       <c r="B9" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
+      <c r="C9" s="27">
+        <v>24473</v>
+      </c>
+      <c r="D9" s="27">
+        <v>26579</v>
+      </c>
+      <c r="E9" s="27">
+        <v>36496</v>
+      </c>
+      <c r="F9" s="27">
+        <v>37073</v>
+      </c>
+      <c r="G9" s="27">
+        <v>41262</v>
+      </c>
     </row>
     <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="16">
@@ -1245,11 +1568,21 @@
       <c r="B10" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
+      <c r="C10" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="E10" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="F10" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="G10" s="26" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="16">
@@ -1258,11 +1591,15 @@
       <c r="B11" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
+      <c r="C11" s="27">
+        <v>35208</v>
+      </c>
+      <c r="D11" s="27">
+        <v>35208</v>
+      </c>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
     </row>
     <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="16">
@@ -1271,11 +1608,19 @@
       <c r="B12" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="27"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
+      <c r="C12" s="27">
+        <v>30225</v>
+      </c>
+      <c r="D12" s="28">
+        <v>31868</v>
+      </c>
+      <c r="E12" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="F12" s="26">
+        <v>2017</v>
+      </c>
+      <c r="G12" s="26"/>
     </row>
     <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="16">
@@ -1284,11 +1629,21 @@
       <c r="B13" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
+      <c r="C13" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="D13" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="E13" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="F13" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="G13" s="26" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="16">
@@ -1297,11 +1652,21 @@
       <c r="B14" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
+      <c r="C14" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="D14" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="E14" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="F14" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="G14" s="26" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="16">
@@ -1310,11 +1675,21 @@
       <c r="B15" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
+      <c r="C15" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="D15" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="E15" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="F15" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="G15" s="26" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="16">
@@ -1323,11 +1698,21 @@
       <c r="B16" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
+      <c r="C16" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="D16" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="E16" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="F16" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="G16" s="26" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="16">
@@ -1336,11 +1721,21 @@
       <c r="B17" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
+      <c r="C17" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="D17" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="E17" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="F17" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="G17" s="29" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="16">
@@ -1349,11 +1744,19 @@
       <c r="B18" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
+      <c r="C18" s="26">
+        <v>8281873512</v>
+      </c>
+      <c r="D18" s="26">
+        <v>9446391412</v>
+      </c>
+      <c r="E18" s="26">
+        <v>9497569512</v>
+      </c>
+      <c r="F18" s="26">
+        <v>9497262512</v>
+      </c>
+      <c r="G18" s="26"/>
     </row>
     <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="16">
@@ -1362,11 +1765,21 @@
       <c r="B19" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
+      <c r="C19" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="D19" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="E19" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="F19" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="G19" s="26" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="16">
@@ -1375,11 +1788,21 @@
       <c r="B20" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
+      <c r="C20" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="D20" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="E20" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="F20" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="G20" s="26" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="16">
@@ -1388,88 +1811,168 @@
       <c r="B21" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
+      <c r="C21" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="D21" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="E21" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="F21" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="G21" s="26" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="16"/>
-      <c r="B22" s="20" t="s">
+      <c r="B22" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
+      <c r="C22" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="D22" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="E22" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="F22" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="G22" s="26" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="16"/>
-      <c r="B23" s="20" t="s">
+      <c r="B23" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
+      <c r="C23" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="D23" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="E23" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="F23" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="G23" s="26" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="24" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="16"/>
-      <c r="B24" s="20" t="s">
+      <c r="B24" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
+      <c r="C24" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="D24" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="E24" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="F24" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="G24" s="26" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="25" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="16"/>
-      <c r="B25" s="20" t="s">
+      <c r="B25" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
+      <c r="C25" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="D25" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="E25" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="F25" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="G25" s="26" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="16"/>
-      <c r="B26" s="20" t="s">
+      <c r="B26" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
+      <c r="C26" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="D26" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="E26" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="F26" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="G26" s="26" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="27" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="16"/>
-      <c r="B27" s="20" t="s">
+      <c r="B27" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
+      <c r="C27" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="D27" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="E27" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="F27" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="G27" s="26" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="28" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="16"/>
-      <c r="B28" s="20" t="s">
+      <c r="B28" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
+      <c r="C28" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="D28" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="E28" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="F28" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="G28" s="26" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="29" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="16">
@@ -1478,24 +1981,44 @@
       <c r="B29" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
+      <c r="C29" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="D29" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="E29" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="F29" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="G29" s="26" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="30" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="16">
         <v>18</v>
       </c>
-      <c r="B30" s="21" t="s">
+      <c r="B30" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
+      <c r="C30" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="D30" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="E30" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="F30" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="G30" s="26" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="31" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="16">
@@ -1504,205 +2027,339 @@
       <c r="B31" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
+      <c r="C31" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="D31" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="E31" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="F31" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="G31" s="26" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="32" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="16">
         <v>20</v>
       </c>
-      <c r="B32" s="21" t="s">
+      <c r="B32" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
+      <c r="C32" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="D32" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="E32" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="F32" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="G32" s="26" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="33" spans="1:7" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A33" s="17"/>
       <c r="B33" s="17"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="26"/>
     </row>
     <row r="34" spans="1:7" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="16">
         <v>21</v>
       </c>
-      <c r="B34" s="21" t="s">
+      <c r="B34" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
+      <c r="C34" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="D34" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="E34" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="F34" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="G34" s="26" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="35" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="16">
         <v>22</v>
       </c>
-      <c r="B35" s="21" t="s">
+      <c r="B35" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="18"/>
+      <c r="C35" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="D35" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="E35" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="F35" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="G35" s="26" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="36" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="16">
         <v>23</v>
       </c>
-      <c r="B36" s="21" t="s">
+      <c r="B36" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="18"/>
+      <c r="C36" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="D36" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="E36" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="F36" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="G36" s="26" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="37" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="16">
         <v>24</v>
       </c>
-      <c r="B37" s="21" t="s">
+      <c r="B37" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="18"/>
+      <c r="C37" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="D37" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="E37" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="F37" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="G37" s="26" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="38" spans="1:7" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="16">
         <v>25</v>
       </c>
-      <c r="B38" s="21" t="s">
+      <c r="B38" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C38" s="18"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="18"/>
-      <c r="G38" s="18"/>
+      <c r="C38" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="D38" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="E38" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="F38" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="G38" s="26" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="39" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="16">
         <v>26</v>
       </c>
-      <c r="B39" s="21" t="s">
+      <c r="B39" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C39" s="18"/>
-      <c r="D39" s="18"/>
-      <c r="E39" s="18"/>
-      <c r="F39" s="18"/>
-      <c r="G39" s="18"/>
+      <c r="C39" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="D39" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="E39" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="F39" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="G39" s="26" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="40" spans="1:7" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="16">
         <v>27</v>
       </c>
-      <c r="B40" s="21" t="s">
+      <c r="B40" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="C40" s="18"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="18"/>
-      <c r="G40" s="18"/>
+      <c r="C40" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="D40" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="E40" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="F40" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="G40" s="26" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="41" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="16">
         <v>28</v>
       </c>
-      <c r="B41" s="21" t="s">
+      <c r="B41" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="C41" s="18"/>
-      <c r="D41" s="18"/>
-      <c r="E41" s="18"/>
-      <c r="F41" s="18"/>
-      <c r="G41" s="18"/>
+      <c r="C41" s="26"/>
+      <c r="D41" s="26"/>
+      <c r="E41" s="26"/>
+      <c r="F41" s="26"/>
+      <c r="G41" s="26"/>
     </row>
     <row r="42" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="16"/>
-      <c r="B42" s="20" t="s">
+      <c r="B42" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C42" s="18"/>
-      <c r="D42" s="18"/>
-      <c r="E42" s="18"/>
-      <c r="F42" s="18"/>
-      <c r="G42" s="18"/>
+      <c r="C42" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="D42" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="E42" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="F42" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="G42" s="26" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="43" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="16"/>
-      <c r="B43" s="20" t="s">
+      <c r="B43" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C43" s="18"/>
-      <c r="D43" s="18"/>
-      <c r="E43" s="18"/>
-      <c r="F43" s="18"/>
-      <c r="G43" s="18"/>
+      <c r="C43" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="D43" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="E43" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="F43" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="G43" s="26" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="44" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="16"/>
-      <c r="B44" s="20" t="s">
+      <c r="B44" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="C44" s="18"/>
-      <c r="D44" s="18"/>
-      <c r="E44" s="18"/>
-      <c r="F44" s="18"/>
-      <c r="G44" s="18"/>
+      <c r="C44" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="D44" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="E44" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="F44" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="G44" s="26" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="45" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="16"/>
-      <c r="B45" s="20" t="s">
+      <c r="B45" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C45" s="18"/>
-      <c r="D45" s="18"/>
-      <c r="E45" s="18"/>
-      <c r="F45" s="18"/>
-      <c r="G45" s="18"/>
+      <c r="C45" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="D45" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="E45" s="26"/>
+      <c r="F45" s="26"/>
+      <c r="G45" s="26"/>
     </row>
     <row r="46" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="16"/>
-      <c r="B46" s="20" t="s">
+      <c r="B46" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C46" s="18"/>
-      <c r="D46" s="18"/>
-      <c r="E46" s="18"/>
-      <c r="F46" s="18"/>
-      <c r="G46" s="18"/>
+      <c r="C46" s="26"/>
+      <c r="D46" s="26"/>
+      <c r="E46" s="26"/>
+      <c r="F46" s="26"/>
+      <c r="G46" s="26"/>
     </row>
     <row r="47" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="16">
         <v>29</v>
       </c>
-      <c r="B47" s="22" t="s">
+      <c r="B47" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="C47" s="30"/>
-      <c r="D47" s="30"/>
-      <c r="E47" s="30"/>
-      <c r="F47" s="30"/>
-      <c r="G47" s="30"/>
+      <c r="C47" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="D47" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="E47" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="F47" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="G47" s="26" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="48" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="16">
@@ -1711,11 +2368,21 @@
       <c r="B48" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="C48" s="18"/>
-      <c r="D48" s="18"/>
-      <c r="E48" s="18"/>
-      <c r="F48" s="18"/>
-      <c r="G48" s="18"/>
+      <c r="C48" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="D48" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="E48" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="F48" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="G48" s="26" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="49" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
@@ -1727,7 +2394,7 @@
       <c r="G49" s="6"/>
     </row>
     <row r="50" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="23" t="s">
+      <c r="A50" s="21" t="s">
         <v>42</v>
       </c>
       <c r="C50" s="6"/>
@@ -1737,7 +2404,7 @@
       <c r="G50" s="6"/>
     </row>
     <row r="51" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="24"/>
+      <c r="A51" s="22"/>
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
       <c r="E51" s="6"/>
@@ -1745,7 +2412,7 @@
       <c r="G51" s="7"/>
     </row>
     <row r="52" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="25" t="s">
+      <c r="A52" s="23" t="s">
         <v>43</v>
       </c>
       <c r="B52" s="1"/>
@@ -1756,7 +2423,7 @@
       <c r="G52" s="7"/>
     </row>
     <row r="53" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="25" t="s">
+      <c r="A53" s="23" t="s">
         <v>53</v>
       </c>
       <c r="B53" s="1"/>
@@ -1767,7 +2434,7 @@
       <c r="G53" s="7"/>
     </row>
     <row r="54" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="25" t="s">
+      <c r="A54" s="23" t="s">
         <v>44</v>
       </c>
       <c r="B54" s="8"/>
@@ -1777,7 +2444,7 @@
       <c r="F54" s="7"/>
     </row>
     <row r="55" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="25" t="s">
+      <c r="A55" s="23" t="s">
         <v>45</v>
       </c>
       <c r="B55" s="8"/>
@@ -1786,14 +2453,14 @@
       <c r="E55" s="7"/>
     </row>
     <row r="56" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="25"/>
+      <c r="A56" s="23"/>
       <c r="B56" s="8"/>
       <c r="C56" s="9"/>
       <c r="D56" s="9"/>
       <c r="E56" s="7"/>
     </row>
     <row r="57" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="25"/>
+      <c r="A57" s="23"/>
       <c r="B57" s="8"/>
       <c r="C57" s="9"/>
       <c r="D57" s="9"/>
